--- a/Multi_year_model/ESM_v2/input_data/input_data.xlsx
+++ b/Multi_year_model/ESM_v2/input_data/input_data.xlsx
@@ -8,27 +8,45 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baioc\Documents\GitHub\pyesm\Multi_year_model\ESM_v2\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D37156-9065-4F17-B923-F51914D77E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24771773-7B12-4640-B804-93ACBD92642F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="u" sheetId="1" r:id="rId1"/>
     <sheet name="d" sheetId="2" r:id="rId2"/>
     <sheet name="c_om" sheetId="3" r:id="rId3"/>
-    <sheet name="periods" sheetId="4" r:id="rId4"/>
-    <sheet name="n_days" sheetId="5" r:id="rId5"/>
-    <sheet name="n_slices" sheetId="6" r:id="rId6"/>
-    <sheet name="Y" sheetId="7" r:id="rId7"/>
-    <sheet name="dp_Y" sheetId="8" r:id="rId8"/>
-    <sheet name="dp_int" sheetId="9" r:id="rId9"/>
+    <sheet name="c_operative" sheetId="4" r:id="rId4"/>
+    <sheet name="lf_max_h" sheetId="5" r:id="rId5"/>
+    <sheet name="lf_min_h" sheetId="6" r:id="rId6"/>
+    <sheet name="lf_max" sheetId="7" r:id="rId7"/>
+    <sheet name="lf_min" sheetId="8" r:id="rId8"/>
+    <sheet name="periods" sheetId="9" r:id="rId9"/>
+    <sheet name="n_days" sheetId="10" r:id="rId10"/>
+    <sheet name="n_slices" sheetId="11" r:id="rId11"/>
+    <sheet name="Y" sheetId="12" r:id="rId12"/>
+    <sheet name="dp_Y" sheetId="13" r:id="rId13"/>
+    <sheet name="dp_int" sheetId="14" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="25">
   <si>
     <t>id</t>
   </si>
@@ -109,7 +127,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,15 +139,26 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -159,11 +188,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,10 +506,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -833,6 +862,1575 @@
       </c>
       <c r="E21">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:F61"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" t="s">
+        <v>23</v>
+      </c>
+      <c r="F45">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" t="s">
+        <v>24</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1301,8 +2899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1331,7 +2929,7 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>0.2</v>
       </c>
     </row>
@@ -1345,7 +2943,7 @@
       <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>0.5</v>
       </c>
     </row>
@@ -1359,7 +2957,7 @@
       <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>0.01</v>
       </c>
     </row>
@@ -1373,7 +2971,7 @@
       <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1387,7 +2985,7 @@
       <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>0.05</v>
       </c>
     </row>
@@ -1398,13 +2996,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1412,15 +3012,177 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1430,13 +3192,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1444,15 +3208,232 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1462,13 +3443,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1476,15 +3459,232 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1494,15 +3694,18 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1510,16 +3713,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1527,16 +3727,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1544,16 +3738,13 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1561,16 +3752,13 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1578,16 +3766,13 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1595,64 +3780,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9">
-        <v>500</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1662,15 +3790,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E13"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1678,16 +3806,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1695,16 +3820,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1712,16 +3831,13 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1729,16 +3845,13 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1746,16 +3859,13 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1763,132 +3873,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1898,15 +3883,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1914,1072 +3899,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" t="s">
-        <v>22</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" t="s">
-        <v>23</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" t="s">
-        <v>24</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>5</v>
-      </c>
-      <c r="C42" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" t="s">
-        <v>13</v>
-      </c>
-      <c r="E43" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" t="s">
-        <v>14</v>
-      </c>
-      <c r="E44" t="s">
-        <v>22</v>
-      </c>
-      <c r="F44">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" t="s">
-        <v>14</v>
-      </c>
-      <c r="E45" t="s">
-        <v>23</v>
-      </c>
-      <c r="F45">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>5</v>
-      </c>
-      <c r="C46" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" t="s">
-        <v>14</v>
-      </c>
-      <c r="E46" t="s">
-        <v>24</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>5</v>
-      </c>
-      <c r="C47" t="s">
-        <v>10</v>
-      </c>
-      <c r="D47" t="s">
-        <v>6</v>
-      </c>
-      <c r="E47" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" t="s">
-        <v>6</v>
-      </c>
-      <c r="E48" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" t="s">
-        <v>6</v>
-      </c>
-      <c r="E49" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
-        <v>5</v>
-      </c>
-      <c r="C51" t="s">
-        <v>10</v>
-      </c>
-      <c r="D51" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52" t="s">
-        <v>10</v>
-      </c>
-      <c r="D52" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
-        <v>5</v>
-      </c>
-      <c r="C53" t="s">
-        <v>10</v>
-      </c>
-      <c r="D53" t="s">
-        <v>12</v>
-      </c>
-      <c r="E53" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54" t="s">
-        <v>5</v>
-      </c>
-      <c r="C54" t="s">
-        <v>10</v>
-      </c>
-      <c r="D54" t="s">
-        <v>12</v>
-      </c>
-      <c r="E54" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55" t="s">
-        <v>5</v>
-      </c>
-      <c r="C55" t="s">
-        <v>10</v>
-      </c>
-      <c r="D55" t="s">
-        <v>12</v>
-      </c>
-      <c r="E55" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56" t="s">
-        <v>5</v>
-      </c>
-      <c r="C56" t="s">
-        <v>10</v>
-      </c>
-      <c r="D56" t="s">
-        <v>13</v>
-      </c>
-      <c r="E56" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
-        <v>5</v>
-      </c>
-      <c r="C57" t="s">
-        <v>10</v>
-      </c>
-      <c r="D57" t="s">
-        <v>13</v>
-      </c>
-      <c r="E57" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58" t="s">
-        <v>5</v>
-      </c>
-      <c r="C58" t="s">
-        <v>10</v>
-      </c>
-      <c r="D58" t="s">
-        <v>13</v>
-      </c>
-      <c r="E58" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59" t="s">
-        <v>5</v>
-      </c>
-      <c r="C59" t="s">
-        <v>10</v>
-      </c>
-      <c r="D59" t="s">
-        <v>14</v>
-      </c>
-      <c r="E59" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60" t="s">
-        <v>5</v>
-      </c>
-      <c r="C60" t="s">
-        <v>10</v>
-      </c>
-      <c r="D60" t="s">
-        <v>14</v>
-      </c>
-      <c r="E60" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61" t="s">
-        <v>5</v>
-      </c>
-      <c r="C61" t="s">
-        <v>10</v>
-      </c>
-      <c r="D61" t="s">
-        <v>14</v>
-      </c>
-      <c r="E61" t="s">
-        <v>24</v>
+      <c r="C2">
+        <v>365</v>
       </c>
     </row>
   </sheetData>
